--- a/DataSetNumberOfTimesMainColor.xlsx
+++ b/DataSetNumberOfTimesMainColor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{727A0688-00F2-574A-BA7E-A95476F47EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADDCC04-CE09-6F4C-8EA7-C35DD42A936C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{727A0688-00F2-574A-BA7E-A95476F47EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED2FE16-C44E-DD41-B2A1-D3AC69646CD8}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="760" windowWidth="16000" windowHeight="17200" xr2:uid="{DAD5E1A2-1360-2E4C-98C6-17414AA22298}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +474,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
